--- a/biology/Médecine/Gustave-Roussy/Gustave-Roussy.xlsx
+++ b/biology/Médecine/Gustave-Roussy/Gustave-Roussy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Gustave-Roussy (typographié Gustave Roussy[2]) est un centre régional de lutte contre le cancer situé à Villejuif dans le Val-de-Marne en France. Il était auparavant connu sous le nom d’institut Gustave-Roussy ou IGR.
+Gustave-Roussy (typographié Gustave Roussy) est un centre régional de lutte contre le cancer situé à Villejuif dans le Val-de-Marne en France. Il était auparavant connu sous le nom d’institut Gustave-Roussy ou IGR.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Statuts et organisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustave-Roussy est un centre de lutte contre le cancer (CLCC), régi par les articles L. 6162-1 à L. 6162-13 du code de la santé publique. Les CLCC sont des personnes morales de droit privé relevant du statut des ESPIC (établissements de santé privés d'intérêt collectif). L'institut est habilité à recevoir des dons et legs.
 </t>
@@ -543,7 +557,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'institut est créé par Gustave Roussy en 1926.
 			Inauguration en 1934 (portail).
@@ -551,8 +567,8 @@
 			Inauguration en 1934 (discours du professeur Roussy).
 			Inauguration en 1934 (le président Lebrun et le professeur Roussy).
 Le bâtiment principal actuel, dont la commande avait été lancée par Pierre Denoix, est l'œuvre de l'architecte Pierre Laborde. Conçu dès 1964 comme un hôpital « en hauteur », il n'a été inauguré qu'en mai 1980 par suite de retards pris dans les études et dans la conduite du chantier. L’hôpital, haut de quatorze étages à l’origine, est bâti autour d’une tour centrale qui contient les circulations verticales et qui joue le rôle d’un véritable pivot. Cet axe vertical dessert, d’un côté, un très vaste bâtiment, en forme de barre ou de « bras », destiné à la consultation et à la recherche et, de l’autre, les bâtiments d’hospitalisation disposés en « demi-étoile » à quatre « doigts ». Complété d'un premier bâtiment destiné à la recherche ouvert en 1981 et agrandi en 1985, puis d'un bâtiment supplémentaire destiné à la recherche translationnelle inauguré en 2013, l'hôpital bénéficie depuis 2004 d'une extension améliorant largement son fonctionnement et l'accès des patients aux consultations. Au 1er janvier 2015, Gustave-Roussy a fusionné avec le CHSP de Chevilly-Larue.
-En avril 2019 trois nouvelles salles de radiologie interventionnelle sont inaugurées, ce qui en fait le plus important plateau de ce type en Europe, entièrement destiné à la cancérologie. La radiologie interventionnelle est une technique de diagnostic et de traitement dite « mini-invasive », qui s'appuie sur l'image pour guider l'accès à des organes situés en profondeur, sans avoir à « ouvrir » les patients. Gustave Roussy réalise chaque année plus de 4 000 interventions de ce type[3].
-Une chapelle est ouverte en permanence et accessible à tous[4],[5].
+En avril 2019 trois nouvelles salles de radiologie interventionnelle sont inaugurées, ce qui en fait le plus important plateau de ce type en Europe, entièrement destiné à la cancérologie. La radiologie interventionnelle est une technique de diagnostic et de traitement dite « mini-invasive », qui s'appuie sur l'image pour guider l'accès à des organes situés en profondeur, sans avoir à « ouvrir » les patients. Gustave Roussy réalise chaque année plus de 4 000 interventions de ce type.
+Une chapelle est ouverte en permanence et accessible à tous,.
 </t>
         </is>
       </c>
@@ -581,9 +597,11 @@
           <t>Chiffres clés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Gustave-Roussy est, à l'échelle européenne, le premier centre de soins, de recherche et d'enseignement en cancérologie[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gustave-Roussy est, à l'échelle européenne, le premier centre de soins, de recherche et d'enseignement en cancérologie.
 Personnels : 
 3 100 professionnels
 dont 950 personnels à la recherche
@@ -624,7 +642,9 @@
           <t>Directeurs de Gustave Roussy</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gustave Roussy, 1926-1947
 René Huguenin, 1947-1955
@@ -663,19 +683,21 @@
           <t>Personnalités liées à l'institut</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Dominique Belpomme, cancérologue
-Georges Mathé[6], cancérologue et immunologue
+Georges Mathé, cancérologue et immunologue
 Émile Papiernik, gynécologue-obstétricien
 Claude Parmentier, cancérologue
-Daniel Schwartz[7], chef des services statistiques à l'Institut Gustave-Roussy
+Daniel Schwartz, chef des services statistiques à l'Institut Gustave-Roussy
 Odile Schweisguth, fondatrice du service de cancérologie pédiatrique
 William Vainchenker, médecin spécialiste de l'hématopoïèse
 Jean-Paul Thiery, biologiste pionnier de la transition epithélio-mésenchymateuse
 Guido Kroemer, médecin cancérologue et immunologiste, découvreur de la mort cellulaire immunogène
 Laurence Zitvogel, oncologue et biologiste
-François-Guy Hourtoulle, chirurgien[8].
+François-Guy Hourtoulle, chirurgien.
 Frédéric Triebel</t>
         </is>
       </c>
@@ -704,11 +726,13 @@
           <t>Incidents et accidents</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 16 novembre 2012, environ 14 000 litres d'effluents radioactifs, constitués par les  urines de patients traités en médecine nucléaire, ont été rejetés accidentellement dans les égouts. L'autorité de sûreté nucléaire (ASN) a classé cet incident au niveau 1 de l'échelle INES[9].
-En 2017, un ancien virologue de l'Institut est condamné à cinq ans de prison pour avoir empoisonné trois de ses collègues avec de l'azoture de sodium en mars 2014[10].
-En 2019, un enfant meurt d'un surdosage médicamenteux à la suite d'une erreur humaine à la pharmacie de l'IGR[11],[12],[13],[14],[15],[16]. Cet accident, très médiatisé dans la mesure où la situation dangereuse à l'origine de l'accident avait été signalée auparavant par des médecins à la Ministre de la Santé, amène à la redéfinition des procédures pharmaceutiques[17].[pertinence contestée]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 16 novembre 2012, environ 14 000 litres d'effluents radioactifs, constitués par les  urines de patients traités en médecine nucléaire, ont été rejetés accidentellement dans les égouts. L'autorité de sûreté nucléaire (ASN) a classé cet incident au niveau 1 de l'échelle INES.
+En 2017, un ancien virologue de l'Institut est condamné à cinq ans de prison pour avoir empoisonné trois de ses collègues avec de l'azoture de sodium en mars 2014.
+En 2019, un enfant meurt d'un surdosage médicamenteux à la suite d'une erreur humaine à la pharmacie de l'IGR. Cet accident, très médiatisé dans la mesure où la situation dangereuse à l'origine de l'accident avait été signalée auparavant par des médecins à la Ministre de la Santé, amène à la redéfinition des procédures pharmaceutiques.[pertinence contestée]
 </t>
         </is>
       </c>
@@ -737,11 +761,13 @@
           <t>École des sciences du cancer Gustave-Roussy</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conjointement avec la Faculté de médecine de l'Université Paris-Saclay, l'Institut Gustave-Roussy dirige l'École des sciences du cancer, un établissement universitaire spécialisé dans la cancérologie[18]. Les enseignements se déroulent au Cancer Campus à Villejuif dans le Val-de-Marne.
-Aux différentes formations proposées par la faculté de médecine (oncologie de l'adulte, de l'adolescent et de l'enfant ; chirurgie ; bonnes pratiques ; imagerie médicale ; radiothérapie ; autres formations), l'établissement intègre l'École doctorale de Cancérologie, Biologie, Médecine, Santé (et son Master 2 Biologie et santé, spécialité Cancérologie) créée avec l'École normale supérieure Paris-Saclay[18].
-Dirigée en 2015 par Pierre Blanchard, l'école avait formé près de 2 800 étudiants et décernait vingt-six diplômes universitaires[18].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conjointement avec la Faculté de médecine de l'Université Paris-Saclay, l'Institut Gustave-Roussy dirige l'École des sciences du cancer, un établissement universitaire spécialisé dans la cancérologie. Les enseignements se déroulent au Cancer Campus à Villejuif dans le Val-de-Marne.
+Aux différentes formations proposées par la faculté de médecine (oncologie de l'adulte, de l'adolescent et de l'enfant ; chirurgie ; bonnes pratiques ; imagerie médicale ; radiothérapie ; autres formations), l'établissement intègre l'École doctorale de Cancérologie, Biologie, Médecine, Santé (et son Master 2 Biologie et santé, spécialité Cancérologie) créée avec l'École normale supérieure Paris-Saclay.
+Dirigée en 2015 par Pierre Blanchard, l'école avait formé près de 2 800 étudiants et décernait vingt-six diplômes universitaires.
 </t>
         </is>
       </c>
@@ -770,10 +796,12 @@
           <t>Desserte</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">L'institut Gustave Roussy est desservi par la ligne de bus 380 (RATP) à l'arrêt Institut Gustave-Roussy et également à l'arrêt Institut Gustave-Roussy entrée principale.
-L'ouverture d'une gare du Grand Paris Express est prévue en 2024-2025 dans le parc départemental des Hautes-Bruyères, devant l’entrée de l'institut[19]. Elle sera desservie à la fois par la ligne 14 (à la fin 2024) et par la ligne 15 (à la fin 2025). Les quais de la ligne 15 se trouveront à une profondeur de 48 mètres[20].
+L'ouverture d'une gare du Grand Paris Express est prévue en 2024-2025 dans le parc départemental des Hautes-Bruyères, devant l’entrée de l'institut. Elle sera desservie à la fois par la ligne 14 (à la fin 2024) et par la ligne 15 (à la fin 2025). Les quais de la ligne 15 se trouveront à une profondeur de 48 mètres.
 </t>
         </is>
       </c>
